--- a/medicine/Enfance/Michael_Morpurgo/Michael_Morpurgo.xlsx
+++ b/medicine/Enfance/Michael_Morpurgo/Michael_Morpurgo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Michael Morpurgo, né le 5 octobre 1943 à St Albans, en Angleterre, est un auteur britannique, notamment connu pour ses ouvrages de littérature d'enfance et de jeunesse souvent liés à des événements historiques.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À dix-huit ans, Michael Morpurgo entre à l'Académie royale militaire de Sandhurst. Il se destine tout d'abord à une carrière militaire, mais il  choisit finalement d'enseigner l'anglais. C'est pendant son enseignement qu'il découvre sa capacité à raconter des histoires. 
 Il épouse à l'âge de vingt ans Clare Lane, la fille d'Allen Lane, fondateur des éditions Penguin Books, son premier éditeur. En 1978, ils s'installent dans le Devon dans un petit village près de Iddelsleigh pour exploiter une ferme, qu'il fait visiter aux enfants issus des quartiers défavorisés de la ville.
@@ -545,7 +559,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cheval de guerre (1982 en VO), 1985 (adapté au cinéma sous le même titre par Steven Spielberg en 2011)
 Le Roi Arthur, 1995, illustré par Michael Foreman
@@ -619,13 +635,50 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Michael Morpurgo a obtenu de nombreux titres et récompenses en Grande-Bretagne et dans de nombreux autres pays. En Grande-Bretagne, il est un écrivain de jeunesse reconnu : il obtient en 1995 le Whitbread du meilleur ouvrage jeunesse pour Le Naufrage du Zanzibar[1] illustré par François Place, et a été lauréat du Children's Laureate (un prix qui récompense un écrivain pour la jeunesse tous les deux ans) pour les années 2003 à 2005.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michael Morpurgo a obtenu de nombreux titres et récompenses en Grande-Bretagne et dans de nombreux autres pays. En Grande-Bretagne, il est un écrivain de jeunesse reconnu : il obtient en 1995 le Whitbread du meilleur ouvrage jeunesse pour Le Naufrage du Zanzibar illustré par François Place, et a été lauréat du Children's Laureate (un prix qui récompense un écrivain pour la jeunesse tous les deux ans) pour les années 2003 à 2005.
 En France, il a été lauréat de cinq prix Sorcières dans plusieurs catégories et du prix Tam-Tam et, en Belgique, du prix ado-lisant.
 Il est l'un des rares auteurs anglophones à avoir été fait chevalier des Arts et des Lettres en France.
-Quelques prix
- Prix Sorcières 1993, catégorie Roman pour Le Roi de la forêt des brumes illustré par François Place
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Michael_Morpurgo</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michael_Morpurgo</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Quelques prix</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Prix Sorcières 1993, catégorie Roman pour Le Roi de la forêt des brumes illustré par François Place
  Beefeater Children’s Novel 1995 pour Le Naufrage de Zanzibar illustré par François Place
  Prix Sorcières 2000, catégorie Album pour La Sagesse de Wombat, illustrations de Christian Birmingham
  Children's book award 2000 pour Le Royaume de Kensuké, illustré par François Place
@@ -640,37 +693,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Michael_Morpurgo</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Michael_Morpurgo</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Décorations</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Chevalier de l'ordre des Arts et des Lettres
- Ordre de l'Empire britannique à titre civil (OBE)</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -692,10 +714,45 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Décorations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de l'ordre des Arts et des Lettres
+ Ordre de l'Empire britannique à titre civil (OBE)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Michael_Morpurgo</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michael_Morpurgo</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Adaptations de son œuvre au cinéma</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>1989 : L'Île aux baleines, film britannique de Clive Rees, d'après son ouvrage Le Jour des baleines
 2002 : Le roi de la forêt des brumes, court-métrage d'animation français de Jean-Jacques Prunès, d'après son ouvrage Le roi de la forêt des brumes (1993)
